--- a/experiments/20201220_exp24_atpadp_ratio/2020120_exp24_plan.xlsx
+++ b/experiments/20201220_exp24_atpadp_ratio/2020120_exp24_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitaroychoudhury/Documents/MURRAY/ug_murray/experiments/20201220_exp24_atpadp_ratio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08491F18-C863-2F4D-8397-350DD394C8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1662D7CC-3A4D-9945-865C-3E7B9C5C0ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outline" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>Ingredient</t>
   </si>
@@ -231,12 +231,6 @@
     <t>DNA vol</t>
   </si>
   <si>
-    <t>12/03/2020 - 12/04/2020</t>
-  </si>
-  <si>
-    <t>Test ATP causing Pi toxicity hypothesis</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
@@ -342,22 +336,43 @@
     <t>setup 3x</t>
   </si>
   <si>
-    <t>A,B,C1</t>
-  </si>
-  <si>
-    <t>A,B,C3</t>
-  </si>
-  <si>
-    <t>A,B,C,4</t>
-  </si>
-  <si>
-    <t>A,B,C5</t>
-  </si>
-  <si>
-    <t>A,C2, D2</t>
-  </si>
-  <si>
     <t>do D2</t>
+  </si>
+  <si>
+    <t>Get ATP : ADP ratios</t>
+  </si>
+  <si>
+    <t>d,e,f,1</t>
+  </si>
+  <si>
+    <t>d,e,f,2</t>
+  </si>
+  <si>
+    <t>d,e,f,3</t>
+  </si>
+  <si>
+    <t>d,e,f,4</t>
+  </si>
+  <si>
+    <t>d,e,f,5</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>let sit for 15 mins</t>
+  </si>
+  <si>
+    <t>take measurements</t>
+  </si>
+  <si>
+    <t>From D to H for ADP</t>
+  </si>
+  <si>
+    <t>from D to I for ATP</t>
+  </si>
+  <si>
+    <t>/h</t>
   </si>
 </sst>
 </file>
@@ -684,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
@@ -888,7 +903,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,8 +1313,8 @@
   </sheetPr>
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1334,8 +1354,8 @@
         <v>16</v>
       </c>
       <c r="B3" s="78"/>
-      <c r="C3" s="80" t="s">
-        <v>55</v>
+      <c r="C3" s="80">
+        <v>44186</v>
       </c>
       <c r="D3"/>
     </row>
@@ -1345,7 +1365,7 @@
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="81" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D4"/>
     </row>
@@ -1717,11 +1737,11 @@
         <v>1.4571126315789473</v>
       </c>
       <c r="O21" s="67">
-        <f t="shared" ref="O21:O50" si="3">10.5*G21-((90*0.95 - MM_sum/_xlnm.extract)/(90*0.95))*10.5*G21</f>
+        <f t="shared" ref="O21:O28" si="3">10.5*G21-((90*0.95 - MM_sum/_xlnm.extract)/(90*0.95))*10.5*G21</f>
         <v>7.875</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1773,7 +1793,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="36">
         <v>19</v>
@@ -1821,10 +1841,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="43">
         <v>19</v>
@@ -1842,7 +1862,7 @@
       <c r="H24" s="44">
         <v>0</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="91">
         <f>N13</f>
         <v>3.5022222222222221</v>
       </c>
@@ -1867,17 +1887,19 @@
       <c r="O24" s="16">
         <v>0</v>
       </c>
-      <c r="P24" s="58"/>
+      <c r="P24" s="58" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:20" s="51" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>5</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="49">
         <f>D24</f>
@@ -1887,7 +1909,7 @@
         <v>3202</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" ref="F25:F50" si="4">IFERROR(1/(E25*660/1000000/D25),"")</f>
+        <f t="shared" ref="F25:F28" si="4">IFERROR(1/(E25*660/1000000/D25),"")</f>
         <v>8.9905930005867543</v>
       </c>
       <c r="G25" s="44">
@@ -1896,7 +1918,7 @@
       <c r="H25" s="50">
         <v>1</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="92">
         <f>I24</f>
         <v>3.5022222222222221</v>
       </c>
@@ -1911,15 +1933,18 @@
         <v>0</v>
       </c>
       <c r="M25" s="17">
-        <f t="shared" ref="M25:M50" si="5">IFERROR((H25/((E25*660/1000000/D25)^-1)*10.5)*G25,"")</f>
+        <f t="shared" ref="M25:M28" si="5">IFERROR((H25/((E25*660/1000000/D25)^-1)*10.5)*G25,"")</f>
         <v>1.1678873684210527</v>
       </c>
       <c r="N25" s="18">
-        <f t="shared" ref="N25:N50" si="6">IFERROR(10.5*G25-O25-M25-I25-J25-L25-K25,"")</f>
+        <f t="shared" ref="N25:N28" si="6">IFERROR(10.5*G25-O25-M25-I25-J25-L25-K25,"")</f>
         <v>1.452112631578947</v>
       </c>
       <c r="O25" s="19">
         <v>0</v>
+      </c>
+      <c r="P25" s="58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1927,10 +1952,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="49">
         <f t="shared" ref="D26:D27" si="7">D25</f>
@@ -1979,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>45</v>
@@ -2001,7 +2026,7 @@
       <c r="H27" s="37">
         <v>0</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="92">
         <f>I25</f>
         <v>3.5022222222222221</v>
       </c>
@@ -2025,8 +2050,11 @@
       <c r="O27" s="19">
         <v>0</v>
       </c>
+      <c r="P27" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T27" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2087,19 +2115,19 @@
     </row>
     <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -2115,13 +2143,13 @@
     <row r="31" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -2129,10 +2157,10 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" s="84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31" s="84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="84"/>
@@ -2142,14 +2170,14 @@
     <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <f>C31*C30</f>
         <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -2160,7 +2188,7 @@
         <v>43</v>
       </c>
       <c r="K32" s="84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L32" s="84"/>
       <c r="M32" s="84"/>
@@ -2170,14 +2198,14 @@
     <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <f>C32/1000</f>
         <v>0.15</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -2185,10 +2213,10 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" s="84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K33" s="84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L33" s="84"/>
       <c r="M33" s="84"/>
@@ -2198,12 +2226,12 @@
     <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -2217,25 +2245,27 @@
       <c r="O34" s="84"/>
     </row>
     <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35"/>
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
       <c r="B35" s="90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="90">
         <v>0.5</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <f>C35</f>
         <v>0.5</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -2247,26 +2277,28 @@
       <c r="O35" s="84"/>
     </row>
     <row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36"/>
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
       <c r="B36" s="90" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="90">
         <f>C35*5</f>
         <v>2.5</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36">
         <f>F35/5</f>
         <v>0.1</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
@@ -2278,29 +2310,35 @@
       <c r="O36" s="84"/>
     </row>
     <row r="37" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37"/>
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
       <c r="B37" s="90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="90">
         <f>C35</f>
         <v>0.5</v>
       </c>
       <c r="D37" s="90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E37" s="90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" s="90">
         <f>F36*1000</f>
         <v>100</v>
       </c>
       <c r="G37" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="91"/>
-      <c r="I37"/>
+        <v>62</v>
+      </c>
+      <c r="H37" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="90" t="s">
+        <v>98</v>
+      </c>
       <c r="J37" s="84"/>
       <c r="K37" s="84"/>
       <c r="L37" s="84"/>
@@ -2314,17 +2352,21 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" s="90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" s="90">
         <f>F37*4</f>
         <v>400</v>
       </c>
       <c r="G38" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38"/>
-      <c r="I38"/>
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" t="s">
+        <v>99</v>
+      </c>
       <c r="J38" s="84"/>
       <c r="K38" s="84"/>
       <c r="L38" s="84"/>
@@ -2338,19 +2380,21 @@
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F39">
         <f>17*F35</f>
         <v>8.5</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39"/>
+        <v>73</v>
+      </c>
+      <c r="I39" t="s">
+        <v>97</v>
+      </c>
       <c r="J39" s="84"/>
       <c r="K39" s="84"/>
       <c r="L39" s="84"/>
@@ -2377,11 +2421,13 @@
     </row>
     <row r="41" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="85"/>
       <c r="C41" s="87"/>
-      <c r="D41" s="88"/>
+      <c r="D41" s="88" t="s">
+        <v>102</v>
+      </c>
       <c r="E41" s="88"/>
       <c r="F41" s="84"/>
       <c r="G41" s="88"/>
@@ -2399,7 +2445,9 @@
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="E42"/>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
       <c r="F42"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
@@ -2415,10 +2463,14 @@
       <c r="A43" s="85"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43"/>
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
       <c r="F43"/>
       <c r="G43" s="88"/>
       <c r="H43" s="88"/>
@@ -2434,7 +2486,7 @@
       <c r="A44" s="85"/>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2453,7 +2505,7 @@
       <c r="A45" s="85"/>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2488,7 +2540,7 @@
     <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="85"/>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -2508,7 +2560,7 @@
       <c r="A48" s="85"/>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2527,7 +2579,7 @@
       <c r="A49" s="85"/>
       <c r="B49"/>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2546,7 +2598,7 @@
       <c r="A50" s="85"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
